--- a/data/hotels_by_city/Houston/Houston_shard_76.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_76.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1138042-Reviews-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Candlewood-Suites-Houston-Westchase-Westheimer.h2163045.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,471 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r503584646-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1138042</t>
+  </si>
+  <si>
+    <t>503584646</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Good place to stay if no other option is available</t>
+  </si>
+  <si>
+    <t>We found the room a little dirty and found a bug in the restroom.  We could hear the people next door, which tells me they could hear us too.  Not a romantic setting under these circumstances.  Will try another location next visit as this chain is usually very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Jimmi L, Front Office Manager at Candlewood Suites Westchase-Westheimer, responded to this reviewResponded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2017</t>
+  </si>
+  <si>
+    <t>We found the room a little dirty and found a bug in the restroom.  We could hear the people next door, which tells me they could hear us too.  Not a romantic setting under these circumstances.  Will try another location next visit as this chain is usually very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r478827686-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>478827686</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>Scammers</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel one time and I will never stay again. I checked in on 4/21 and checked out on 4/22. The clerk there took a long time to get to me so I could check in. Upon checking in my card was swiped as usual for a hold which is fine. The room was okay and the whole bathroom floor was wet. But I wanted to rest and not complain. I then checked out on Saturday morning and left for work. I check my account and I was being held $100.88 form this hotel. I called the hotel to ask why and they said that nothing was being held and that i was a no show at this hotel. I said check the cameras and you will see me at least three times on the front counter. I was furious because how could you say you don't have a hold when its mandatory to hold an amount. I was told to wait until Monday to contact a manager. I then contacted a manager on Monday and I was told there is nothing on my card. Magically the amount on my debit card clear and then another hold for $75.88 appeared. I will never stay here again and I will be calling cooperate and writing more reviews on other sites. DO not stay here. All they have been doing was giving me the run around. Just return my...I stayed at this hotel one time and I will never stay again. I checked in on 4/21 and checked out on 4/22. The clerk there took a long time to get to me so I could check in. Upon checking in my card was swiped as usual for a hold which is fine. The room was okay and the whole bathroom floor was wet. But I wanted to rest and not complain. I then checked out on Saturday morning and left for work. I check my account and I was being held $100.88 form this hotel. I called the hotel to ask why and they said that nothing was being held and that i was a no show at this hotel. I said check the cameras and you will see me at least three times on the front counter. I was furious because how could you say you don't have a hold when its mandatory to hold an amount. I was told to wait until Monday to contact a manager. I then contacted a manager on Monday and I was told there is nothing on my card. Magically the amount on my debit card clear and then another hold for $75.88 appeared. I will never stay here again and I will be calling cooperate and writing more reviews on other sites. DO not stay here. All they have been doing was giving me the run around. Just return my money. that is $176.76 for a hotel that I use priceline to pay for. Priceline already charged me for the room so why am I being charged again?MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Westchase-Westheimer, responded to this reviewResponded May 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel one time and I will never stay again. I checked in on 4/21 and checked out on 4/22. The clerk there took a long time to get to me so I could check in. Upon checking in my card was swiped as usual for a hold which is fine. The room was okay and the whole bathroom floor was wet. But I wanted to rest and not complain. I then checked out on Saturday morning and left for work. I check my account and I was being held $100.88 form this hotel. I called the hotel to ask why and they said that nothing was being held and that i was a no show at this hotel. I said check the cameras and you will see me at least three times on the front counter. I was furious because how could you say you don't have a hold when its mandatory to hold an amount. I was told to wait until Monday to contact a manager. I then contacted a manager on Monday and I was told there is nothing on my card. Magically the amount on my debit card clear and then another hold for $75.88 appeared. I will never stay here again and I will be calling cooperate and writing more reviews on other sites. DO not stay here. All they have been doing was giving me the run around. Just return my...I stayed at this hotel one time and I will never stay again. I checked in on 4/21 and checked out on 4/22. The clerk there took a long time to get to me so I could check in. Upon checking in my card was swiped as usual for a hold which is fine. The room was okay and the whole bathroom floor was wet. But I wanted to rest and not complain. I then checked out on Saturday morning and left for work. I check my account and I was being held $100.88 form this hotel. I called the hotel to ask why and they said that nothing was being held and that i was a no show at this hotel. I said check the cameras and you will see me at least three times on the front counter. I was furious because how could you say you don't have a hold when its mandatory to hold an amount. I was told to wait until Monday to contact a manager. I then contacted a manager on Monday and I was told there is nothing on my card. Magically the amount on my debit card clear and then another hold for $75.88 appeared. I will never stay here again and I will be calling cooperate and writing more reviews on other sites. DO not stay here. All they have been doing was giving me the run around. Just return my money. that is $176.76 for a hotel that I use priceline to pay for. Priceline already charged me for the room so why am I being charged again?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r471151638-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471151638</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Reliable Stay</t>
+  </si>
+  <si>
+    <t>This place is always updated, clean and at a fair price. My sole complaint is that they change wifi passwords at midnight on Thursdays and if you check in on a Thursday they will not or maybe cannot give you the Friday password. On my last stay I needed to use  the laptop at three am and called the front desk who gave me a password that did not work. When I called him back he said to use the old one which did.Who knows!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Jimmi L, Front Office Manager at Candlewood Suites Westchase-Westheimer, responded to this reviewResponded April 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2017</t>
+  </si>
+  <si>
+    <t>This place is always updated, clean and at a fair price. My sole complaint is that they change wifi passwords at midnight on Thursdays and if you check in on a Thursday they will not or maybe cannot give you the Friday password. On my last stay I needed to use  the laptop at three am and called the front desk who gave me a password that did not work. When I called him back he said to use the old one which did.Who knows!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r431219548-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431219548</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Good staff, good facility!</t>
+  </si>
+  <si>
+    <t>It was a comfy and welcoming suite. Visited there with 2 kids and everything was great. The night staff, Maaz, was very nice to help me finding grocery stores near the hotel. Affordable and good hotel. Will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Jimmi L, Front Office Manager at Candlewood Suites Westchase-Westheimer, responded to this reviewResponded December 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2016</t>
+  </si>
+  <si>
+    <t>It was a comfy and welcoming suite. Visited there with 2 kids and everything was great. The night staff, Maaz, was very nice to help me finding grocery stores near the hotel. Affordable and good hotel. Will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r428826366-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>428826366</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Terrible Experience! Harassed by staff!</t>
+  </si>
+  <si>
+    <t>I usually stay at the Candlewood right off of Beltway 8, just a few miles away, but booked this one by mistake. Boy, what a difference! I usually really like Candlewoods but my experience here was terrible.
+First, it's in a pretty poor neighborhood with horrid traffic.
+Second, it smells. The 1st floor smells like dogs pretty strongly. My room on the 3rd floor smelled bad as well. When I came down to request another room, the desk attendant was accommodating but condescending, stating "everyone has different sensitivities", as if it were me and not the room. My new room smelled just as bad so I decided to deal with it, as I was sure they would all be like that.
+Now for the absolute worst part: I was HARASSED by the cleaning staff BEFORE check out time even got there. I was trying to get ready for my bridal portraits, working on my hair and makeup, when I got a knock on the door from the cleaning staff wanting to clean my room. Check out isn't til 12pm and I said this. They left. At 11:50am they come back and knock insistently. I yell that I'm not ready to leave yet, it's not even check out. They continue to knock until I fling the door open. They ask me when I'm going to leave. I say that I'm still packing my things up, it's not even check out time...I usually stay at the Candlewood right off of Beltway 8, just a few miles away, but booked this one by mistake. Boy, what a difference! I usually really like Candlewoods but my experience here was terrible.First, it's in a pretty poor neighborhood with horrid traffic.Second, it smells. The 1st floor smells like dogs pretty strongly. My room on the 3rd floor smelled bad as well. When I came down to request another room, the desk attendant was accommodating but condescending, stating "everyone has different sensitivities", as if it were me and not the room. My new room smelled just as bad so I decided to deal with it, as I was sure they would all be like that.Now for the absolute worst part: I was HARASSED by the cleaning staff BEFORE check out time even got there. I was trying to get ready for my bridal portraits, working on my hair and makeup, when I got a knock on the door from the cleaning staff wanting to clean my room. Check out isn't til 12pm and I said this. They left. At 11:50am they come back and knock insistently. I yell that I'm not ready to leave yet, it's not even check out. They continue to knock until I fling the door open. They ask me when I'm going to leave. I say that I'm still packing my things up, it's not even check out time yet. They ask again when I'm going to leave. They then wait outside my hotel room as I pack up, making me intensely uncomfortable. At noon I'm ready to walk out my door, but the cleaning staff is still standing outside my room, right at the door. EXTREMELY rude. I had to call the front desk because I did not feel comfortable at all with that.WORST experience ever. I stay at Candlewoods around the US and I have never been treated so poorly.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Westchase-Westheimer, responded to this reviewResponded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2016</t>
+  </si>
+  <si>
+    <t>I usually stay at the Candlewood right off of Beltway 8, just a few miles away, but booked this one by mistake. Boy, what a difference! I usually really like Candlewoods but my experience here was terrible.
+First, it's in a pretty poor neighborhood with horrid traffic.
+Second, it smells. The 1st floor smells like dogs pretty strongly. My room on the 3rd floor smelled bad as well. When I came down to request another room, the desk attendant was accommodating but condescending, stating "everyone has different sensitivities", as if it were me and not the room. My new room smelled just as bad so I decided to deal with it, as I was sure they would all be like that.
+Now for the absolute worst part: I was HARASSED by the cleaning staff BEFORE check out time even got there. I was trying to get ready for my bridal portraits, working on my hair and makeup, when I got a knock on the door from the cleaning staff wanting to clean my room. Check out isn't til 12pm and I said this. They left. At 11:50am they come back and knock insistently. I yell that I'm not ready to leave yet, it's not even check out. They continue to knock until I fling the door open. They ask me when I'm going to leave. I say that I'm still packing my things up, it's not even check out time...I usually stay at the Candlewood right off of Beltway 8, just a few miles away, but booked this one by mistake. Boy, what a difference! I usually really like Candlewoods but my experience here was terrible.First, it's in a pretty poor neighborhood with horrid traffic.Second, it smells. The 1st floor smells like dogs pretty strongly. My room on the 3rd floor smelled bad as well. When I came down to request another room, the desk attendant was accommodating but condescending, stating "everyone has different sensitivities", as if it were me and not the room. My new room smelled just as bad so I decided to deal with it, as I was sure they would all be like that.Now for the absolute worst part: I was HARASSED by the cleaning staff BEFORE check out time even got there. I was trying to get ready for my bridal portraits, working on my hair and makeup, when I got a knock on the door from the cleaning staff wanting to clean my room. Check out isn't til 12pm and I said this. They left. At 11:50am they come back and knock insistently. I yell that I'm not ready to leave yet, it's not even check out. They continue to knock until I fling the door open. They ask me when I'm going to leave. I say that I'm still packing my things up, it's not even check out time yet. They ask again when I'm going to leave. They then wait outside my hotel room as I pack up, making me intensely uncomfortable. At noon I'm ready to walk out my door, but the cleaning staff is still standing outside my room, right at the door. EXTREMELY rude. I had to call the front desk because I did not feel comfortable at all with that.WORST experience ever. I stay at Candlewoods around the US and I have never been treated so poorly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r422232772-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>422232772</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Good value, great features, friendly staff but needs some maintenance</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for business.  I selected it for the features, like a stove, microwave, dishwasher and refrigerator.  When I checked in, my room had several small problems.  1. Bulletin fell off the wall, 2. Phone would not dial, and 3. The clock radio was not working properly.  I complained to the hotel staff and they kindly switched me to a new room.  My second room, had less problems, but still needed a little maintenance, for example the faucets would not produce hot water easily.   I later discovered the following general problems, not all dryers were not working, and the whirlpool temperature was luke warm, at best.  On a positive note, the exercise room was useful and modern.  There was a dinner on Wednesday evening for the guests-a nice extra.   This hotel was clean, safe and offers a more than most chains, yet, it needs some maintenance.  If the management can fix these small problems, then I would rate this hotel as a 5 out of 5.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Westchase-Westheimer, responded to this reviewResponded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for business.  I selected it for the features, like a stove, microwave, dishwasher and refrigerator.  When I checked in, my room had several small problems.  1. Bulletin fell off the wall, 2. Phone would not dial, and 3. The clock radio was not working properly.  I complained to the hotel staff and they kindly switched me to a new room.  My second room, had less problems, but still needed a little maintenance, for example the faucets would not produce hot water easily.   I later discovered the following general problems, not all dryers were not working, and the whirlpool temperature was luke warm, at best.  On a positive note, the exercise room was useful and modern.  There was a dinner on Wednesday evening for the guests-a nice extra.   This hotel was clean, safe and offers a more than most chains, yet, it needs some maintenance.  If the management can fix these small problems, then I would rate this hotel as a 5 out of 5.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r379358906-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>379358906</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>Amazing Property of very high Standards</t>
+  </si>
+  <si>
+    <t>This Property is 100% Professional and of very high standards the rooms are so clean the grounds are immaculate the pool sparkles all staff are friendly and go out of there way your vehicles are very safe in car park this place is the place to stay children are very welcome as well Heb 2 blocks down and restaurants close by. Galleria not far away</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r358126803-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>358126803</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Very solid hotel</t>
+  </si>
+  <si>
+    <t>Very nice hotel. Not flashy or great, but solid. The rooms were nice, the location was great and the staff friendly.We wanted to enjoy the jacuzzi but the water wasn't hot. We told front desk and they were getting maintenance to fix. With it being a Candlewood there wasn't breakfast, but we knew that and it was fine! One travel tip, if you're trying to enter the heart of Houston avoid tolls. We got hit on three different occasions paying three $1.75 tolls on one trip. Not sure if we would stay next time just because we'd probably want something a little better, but it's still a very solid hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel. Not flashy or great, but solid. The rooms were nice, the location was great and the staff friendly.We wanted to enjoy the jacuzzi but the water wasn't hot. We told front desk and they were getting maintenance to fix. With it being a Candlewood there wasn't breakfast, but we knew that and it was fine! One travel tip, if you're trying to enter the heart of Houston avoid tolls. We got hit on three different occasions paying three $1.75 tolls on one trip. Not sure if we would stay next time just because we'd probably want something a little better, but it's still a very solid hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r328508692-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>328508692</t>
+  </si>
+  <si>
+    <t>11/22/2015</t>
+  </si>
+  <si>
+    <t>I would have been glad to hear the road noise</t>
+  </si>
+  <si>
+    <t>The hotel is old school rooms with big old fridges and air conditioners, very noisy with either running which in Houston is likely most of the year.Room also "smelt funny" which might have been just my room but hard to tell.Wireless/Internet speeds where pretty good I didn't have any problems used for my work or play.There is very little in the local walking distance if you don't have a vehicle, they have a candlewood parlour which is mostly stocked with things although the freezer was broken while I was there.Staff pretty friendly but don't appear to know anything about the local area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Westchase-Westheimer, responded to this reviewResponded December 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is old school rooms with big old fridges and air conditioners, very noisy with either running which in Houston is likely most of the year.Room also "smelt funny" which might have been just my room but hard to tell.Wireless/Internet speeds where pretty good I didn't have any problems used for my work or play.There is very little in the local walking distance if you don't have a vehicle, they have a candlewood parlour which is mostly stocked with things although the freezer was broken while I was there.Staff pretty friendly but don't appear to know anything about the local area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r217804904-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>217804904</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>Great location....</t>
+  </si>
+  <si>
+    <t>I chose this hotel because of it's location and the full-kitchen.  This was my first stay at this particular Candlewood Suites. It appears to be "dated". However, my room was clean and the staff was friendly. The A/C seemed to have issues with keeping my room cool. Houston is a hot/humid city, so I was a bit disappointed that my room was not cool when I returned from work. I stayed four nights and was able to tolerate the A/C issue. Like I said, the location/amenities benefits outweighed the "temperature" issue. There is no shortage of restaurants/stores in this area. It can get busy, as Westheimer is a major artery in Houston.   I felt safe and didn't worry about any "undesirables" hanging around. This hotel gives you easy access to Westheimer and the Tollway.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Westchase-Westheimer, responded to this reviewResponded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2014</t>
+  </si>
+  <si>
+    <t>I chose this hotel because of it's location and the full-kitchen.  This was my first stay at this particular Candlewood Suites. It appears to be "dated". However, my room was clean and the staff was friendly. The A/C seemed to have issues with keeping my room cool. Houston is a hot/humid city, so I was a bit disappointed that my room was not cool when I returned from work. I stayed four nights and was able to tolerate the A/C issue. Like I said, the location/amenities benefits outweighed the "temperature" issue. There is no shortage of restaurants/stores in this area. It can get busy, as Westheimer is a major artery in Houston.   I felt safe and didn't worry about any "undesirables" hanging around. This hotel gives you easy access to Westheimer and the Tollway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r199660102-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199660102</t>
+  </si>
+  <si>
+    <t>04/02/2014</t>
+  </si>
+  <si>
+    <t>Not an honest hotel</t>
+  </si>
+  <si>
+    <t>First I have to admit it was my fault for forgetting my Ipad at the hotel. I got home, realized that and immediately locked it through internet. Called the hotel 4 times to ask if they could find it somewhere in the room, laundry room, lost and found office or anywhere that if someone forgets their belongings, the hotel can find it, and they repeatedly said it was not in any of those places. So I asked if the manager would be able to contact me later, then called the non-emergency police department to report the case, and the police also called the hotel to verify the situation. Surprisingly, the next day, Ms. Sonia Doctor, hotel Operations Manager, called me, saying they found the Ipad in the "storage." I guess they worked it out internally. Later I asked the manager if she could mail me the Ipad, and asked for the price, she said it was about $10-$15, but ended up, I got charged of $54. Very disappointed and dissatisfied about the service and honesty of this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Westchase-Westheimer, responded to this reviewResponded April 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2014</t>
+  </si>
+  <si>
+    <t>First I have to admit it was my fault for forgetting my Ipad at the hotel. I got home, realized that and immediately locked it through internet. Called the hotel 4 times to ask if they could find it somewhere in the room, laundry room, lost and found office or anywhere that if someone forgets their belongings, the hotel can find it, and they repeatedly said it was not in any of those places. So I asked if the manager would be able to contact me later, then called the non-emergency police department to report the case, and the police also called the hotel to verify the situation. Surprisingly, the next day, Ms. Sonia Doctor, hotel Operations Manager, called me, saying they found the Ipad in the "storage." I guess they worked it out internally. Later I asked the manager if she could mail me the Ipad, and asked for the price, she said it was about $10-$15, but ended up, I got charged of $54. Very disappointed and dissatisfied about the service and honesty of this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r158059898-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158059898</t>
+  </si>
+  <si>
+    <t>04/17/2013</t>
+  </si>
+  <si>
+    <t>Won't stay here again!</t>
+  </si>
+  <si>
+    <t>I booked this hotel due to its name ("Candlewood Suites" are a good brand generally, for what I am looking for in a hotel), its location closes to where my meetings were the next day, and the price (moderate, not super cheap nor super expensive).  The hotel itseslf is not too bad, although there are definitely things that need to be done to the physical condition.  My reason for the low rating is for the paper-thin walls and the management's failure to honor any request that I made, even though I am one of their elite stayers.  I psecifically requested a high floor, no handicapped room, quiet side of the building.  I realize that these are only requests, but if they cannot be fulfilled, I would rather know that at the time of booking.  
+Si I showed up at the hotel after flying 4 hours from Portland, OR, tired and axious to get a quick bite to eat and get to bed.  When I checked in, in a somewhat slighyl seedy area of Westheimer that made me nervous to set foot outside of the hotel and walk over to the local gas station to get some snacks and things, I was assigned a room on the ground floor.  This did not make me happy, but i thought, "Oh Well".  I walked to the room and found it was a handicapped room.  I returned to the front desk and asked for...I booked this hotel due to its name ("Candlewood Suites" are a good brand generally, for what I am looking for in a hotel), its location closes to where my meetings were the next day, and the price (moderate, not super cheap nor super expensive).  The hotel itseslf is not too bad, although there are definitely things that need to be done to the physical condition.  My reason for the low rating is for the paper-thin walls and the management's failure to honor any request that I made, even though I am one of their elite stayers.  I psecifically requested a high floor, no handicapped room, quiet side of the building.  I realize that these are only requests, but if they cannot be fulfilled, I would rather know that at the time of booking.  Si I showed up at the hotel after flying 4 hours from Portland, OR, tired and axious to get a quick bite to eat and get to bed.  When I checked in, in a somewhat slighyl seedy area of Westheimer that made me nervous to set foot outside of the hotel and walk over to the local gas station to get some snacks and things, I was assigned a room on the ground floor.  This did not make me happy, but i thought, "Oh Well".  I walked to the room and found it was a handicapped room.  I returned to the front desk and asked for another room.  I was informed that they had been totally booked for more than a week, and that this is all that they had.  I almost checked out, but it was late, and I really needed to sleep.  I mentioned how unhappy I was.  No apologies were offered.   Since I booked this room directly, over the phone, within this "week during which everything was sold out", I am surprised that they did not mention to me that my requests had very little chance of being fulfilled.  I fault them for this, not the fact that there were no rooms matching my request available.  I went in to the room.  The work area was very small, barely large enough to put down my laptop and my notebook, glasses, pen and cell phone.  It was hard even top just check my email, let alone prepare the PowerPoints that I needed for the next day.  The handicapped bathroom was not good - and I wonder just how wheelchair- bound guests actually manage to take abath or shower.  Instead of a roll-in shower, they had a bath tub with a lot of rails, and a shower cord with nothing to attach it to.  Most of these hand-shower hook-ups have a peg or seomthing that the shower head can be attached to, and the level of the shower lowered or raised.  There was a bar ostenibly for that prupose, but the slide part was entirely missing, and so one had to actually hold the shower head with one hand in order to takle a shower.  As I am able-bodied, I could get in and out of the tub, but I don't see how a handicapped person would manage this without a lot of unpleasantness.  Also, the hot water was at best lukewarm, and the shower fitting that is used to adjust the temperature was strange - if you turned it halway, it was at its hottest.  you could turn it either way completely 360 degrees, and other than the pinnacle position, it would always get colder either way you turned it!  The walls in my room were paper-thin.  I could hear the mildest cough or TV sound.  I was fortunate that the person above me and the people next to me wewnt to bed at approximately the same time that I did, or I would have had no sleep whatsoever.  I appreciate their consideration.  Being on the parking lot on the ground level was also very noisy.  I had not planned to have the air conditioner running all night, but the car noise required me to try to drown it out.On the plus side, the bed iws very comfortable, including the very nice pillows.  The folks running the front desk are pleasant, if highly ineffectual and clueless.  The internet is so overburdened that I ended up tethering my cell phone in order to do email and send a few files back and forth.I will not stay here again willingly.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Westchase-Westheimer, responded to this reviewResponded July 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2013</t>
+  </si>
+  <si>
+    <t>I booked this hotel due to its name ("Candlewood Suites" are a good brand generally, for what I am looking for in a hotel), its location closes to where my meetings were the next day, and the price (moderate, not super cheap nor super expensive).  The hotel itseslf is not too bad, although there are definitely things that need to be done to the physical condition.  My reason for the low rating is for the paper-thin walls and the management's failure to honor any request that I made, even though I am one of their elite stayers.  I psecifically requested a high floor, no handicapped room, quiet side of the building.  I realize that these are only requests, but if they cannot be fulfilled, I would rather know that at the time of booking.  
+Si I showed up at the hotel after flying 4 hours from Portland, OR, tired and axious to get a quick bite to eat and get to bed.  When I checked in, in a somewhat slighyl seedy area of Westheimer that made me nervous to set foot outside of the hotel and walk over to the local gas station to get some snacks and things, I was assigned a room on the ground floor.  This did not make me happy, but i thought, "Oh Well".  I walked to the room and found it was a handicapped room.  I returned to the front desk and asked for...I booked this hotel due to its name ("Candlewood Suites" are a good brand generally, for what I am looking for in a hotel), its location closes to where my meetings were the next day, and the price (moderate, not super cheap nor super expensive).  The hotel itseslf is not too bad, although there are definitely things that need to be done to the physical condition.  My reason for the low rating is for the paper-thin walls and the management's failure to honor any request that I made, even though I am one of their elite stayers.  I psecifically requested a high floor, no handicapped room, quiet side of the building.  I realize that these are only requests, but if they cannot be fulfilled, I would rather know that at the time of booking.  Si I showed up at the hotel after flying 4 hours from Portland, OR, tired and axious to get a quick bite to eat and get to bed.  When I checked in, in a somewhat slighyl seedy area of Westheimer that made me nervous to set foot outside of the hotel and walk over to the local gas station to get some snacks and things, I was assigned a room on the ground floor.  This did not make me happy, but i thought, "Oh Well".  I walked to the room and found it was a handicapped room.  I returned to the front desk and asked for another room.  I was informed that they had been totally booked for more than a week, and that this is all that they had.  I almost checked out, but it was late, and I really needed to sleep.  I mentioned how unhappy I was.  No apologies were offered.   Since I booked this room directly, over the phone, within this "week during which everything was sold out", I am surprised that they did not mention to me that my requests had very little chance of being fulfilled.  I fault them for this, not the fact that there were no rooms matching my request available.  I went in to the room.  The work area was very small, barely large enough to put down my laptop and my notebook, glasses, pen and cell phone.  It was hard even top just check my email, let alone prepare the PowerPoints that I needed for the next day.  The handicapped bathroom was not good - and I wonder just how wheelchair- bound guests actually manage to take abath or shower.  Instead of a roll-in shower, they had a bath tub with a lot of rails, and a shower cord with nothing to attach it to.  Most of these hand-shower hook-ups have a peg or seomthing that the shower head can be attached to, and the level of the shower lowered or raised.  There was a bar ostenibly for that prupose, but the slide part was entirely missing, and so one had to actually hold the shower head with one hand in order to takle a shower.  As I am able-bodied, I could get in and out of the tub, but I don't see how a handicapped person would manage this without a lot of unpleasantness.  Also, the hot water was at best lukewarm, and the shower fitting that is used to adjust the temperature was strange - if you turned it halway, it was at its hottest.  you could turn it either way completely 360 degrees, and other than the pinnacle position, it would always get colder either way you turned it!  The walls in my room were paper-thin.  I could hear the mildest cough or TV sound.  I was fortunate that the person above me and the people next to me wewnt to bed at approximately the same time that I did, or I would have had no sleep whatsoever.  I appreciate their consideration.  Being on the parking lot on the ground level was also very noisy.  I had not planned to have the air conditioner running all night, but the car noise required me to try to drown it out.On the plus side, the bed iws very comfortable, including the very nice pillows.  The folks running the front desk are pleasant, if highly ineffectual and clueless.  The internet is so overburdened that I ended up tethering my cell phone in order to do email and send a few files back and forth.I will not stay here again willingly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r142695094-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142695094</t>
+  </si>
+  <si>
+    <t>10/13/2012</t>
+  </si>
+  <si>
+    <t>Convenient...</t>
+  </si>
+  <si>
+    <t>It's okay for a couple of nights.Places to eat close by.There's a sort of shop (locked) that sells stuff - never went in to lookEasy parkingNot too difficult to find.Handy for escaping west. Easy for the beltway and routs to airport.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r138680258-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>138680258</t>
+  </si>
+  <si>
+    <t>08/28/2012</t>
+  </si>
+  <si>
+    <t>Ok, but probably would pick another location next time.</t>
+  </si>
+  <si>
+    <t>This was my first stay at this Candlewood.  For the most part, the hotel has a convenient location -- easy access.  My problem was that I felt like I was walking into a college dorm.  There seemed to be college age kids everywhere.  The staff seemed to keep the place clean, but the laundry room was like a sauna.  The room was clean, but had a musty odor and the AC would only run if the room motion sensor was active.  I later found out at checkout, they could have disabled that feature.  Also, there is only weekly housekeeping. You must exchange towels at the front desk.  Over all for the cost of the room, I was disappointed with my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>This was my first stay at this Candlewood.  For the most part, the hotel has a convenient location -- easy access.  My problem was that I felt like I was walking into a college dorm.  There seemed to be college age kids everywhere.  The staff seemed to keep the place clean, but the laundry room was like a sauna.  The room was clean, but had a musty odor and the AC would only run if the room motion sensor was active.  I later found out at checkout, they could have disabled that feature.  Also, there is only weekly housekeeping. You must exchange towels at the front desk.  Over all for the cost of the room, I was disappointed with my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r133048784-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>133048784</t>
+  </si>
+  <si>
+    <t>06/29/2012</t>
+  </si>
+  <si>
+    <t>Home away from home besides a few negatives</t>
+  </si>
+  <si>
+    <t>Upon arriving at hotel for hubby's business trip (my 1 yr.old and i came along), we were greeted by friendly front desk personnel by the name of Wen. Were shocked to see how small the efficiency room was that the hubby's company reserved for us. Talked to Wen (and remind you, it was a Sunday) and he contacted the hotel's sales manager and she contacted my hubby's company and we got upgraded to a one bedroom on the company's dime. They both went out of their way to accommodate us! The one bedroom is much more suitable for a family.
+Room is spacious and the bedroom is seperate from the living room/kitchen/bathroom. Only complaints i have is that the entire second and third floor smell like curry powder. BLAH. The third floor and our room reek of it. The property has a nice pool that is upkept well and a nice grilling gazebo area with two newer grills and tables and chairs. Hotel is right off of Westheimer Road, which is a main road in Houston with tons of restaurants and shops. Weekly, the hotel puts on a meet and greet every Wednesday and provides free food and beer/soft drinks. Nice way to meet people. As far as feeling safe here, there are shady apartments behind the hotel (seperated by a tall fence) and we did not feel threatened during the day or night outside because the hotel has security...Upon arriving at hotel for hubby's business trip (my 1 yr.old and i came along), we were greeted by friendly front desk personnel by the name of Wen. Were shocked to see how small the efficiency room was that the hubby's company reserved for us. Talked to Wen (and remind you, it was a Sunday) and he contacted the hotel's sales manager and she contacted my hubby's company and we got upgraded to a one bedroom on the company's dime. They both went out of their way to accommodate us! The one bedroom is much more suitable for a family.Room is spacious and the bedroom is seperate from the living room/kitchen/bathroom. Only complaints i have is that the entire second and third floor smell like curry powder. BLAH. The third floor and our room reek of it. The property has a nice pool that is upkept well and a nice grilling gazebo area with two newer grills and tables and chairs. Hotel is right off of Westheimer Road, which is a main road in Houston with tons of restaurants and shops. Weekly, the hotel puts on a meet and greet every Wednesday and provides free food and beer/soft drinks. Nice way to meet people. As far as feeling safe here, there are shady apartments behind the hotel (seperated by a tall fence) and we did not feel threatened during the day or night outside because the hotel has security at night time. It isn't an area that you can walk to things though. Westheimer is a four lane highway and the area has some shady characters walking around. There is a sonic right in front of hotel for last minute food. The staff were absolutely wonderful and accommodating and became like our family while we were here! Would reccommed this hotel to out of towners and business people.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Upon arriving at hotel for hubby's business trip (my 1 yr.old and i came along), we were greeted by friendly front desk personnel by the name of Wen. Were shocked to see how small the efficiency room was that the hubby's company reserved for us. Talked to Wen (and remind you, it was a Sunday) and he contacted the hotel's sales manager and she contacted my hubby's company and we got upgraded to a one bedroom on the company's dime. They both went out of their way to accommodate us! The one bedroom is much more suitable for a family.
+Room is spacious and the bedroom is seperate from the living room/kitchen/bathroom. Only complaints i have is that the entire second and third floor smell like curry powder. BLAH. The third floor and our room reek of it. The property has a nice pool that is upkept well and a nice grilling gazebo area with two newer grills and tables and chairs. Hotel is right off of Westheimer Road, which is a main road in Houston with tons of restaurants and shops. Weekly, the hotel puts on a meet and greet every Wednesday and provides free food and beer/soft drinks. Nice way to meet people. As far as feeling safe here, there are shady apartments behind the hotel (seperated by a tall fence) and we did not feel threatened during the day or night outside because the hotel has security...Upon arriving at hotel for hubby's business trip (my 1 yr.old and i came along), we were greeted by friendly front desk personnel by the name of Wen. Were shocked to see how small the efficiency room was that the hubby's company reserved for us. Talked to Wen (and remind you, it was a Sunday) and he contacted the hotel's sales manager and she contacted my hubby's company and we got upgraded to a one bedroom on the company's dime. They both went out of their way to accommodate us! The one bedroom is much more suitable for a family.Room is spacious and the bedroom is seperate from the living room/kitchen/bathroom. Only complaints i have is that the entire second and third floor smell like curry powder. BLAH. The third floor and our room reek of it. The property has a nice pool that is upkept well and a nice grilling gazebo area with two newer grills and tables and chairs. Hotel is right off of Westheimer Road, which is a main road in Houston with tons of restaurants and shops. Weekly, the hotel puts on a meet and greet every Wednesday and provides free food and beer/soft drinks. Nice way to meet people. As far as feeling safe here, there are shady apartments behind the hotel (seperated by a tall fence) and we did not feel threatened during the day or night outside because the hotel has security at night time. It isn't an area that you can walk to things though. Westheimer is a four lane highway and the area has some shady characters walking around. There is a sonic right in front of hotel for last minute food. The staff were absolutely wonderful and accommodating and became like our family while we were here! Would reccommed this hotel to out of towners and business people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r120092452-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120092452</t>
+  </si>
+  <si>
+    <t>11/02/2011</t>
+  </si>
+  <si>
+    <t>Poor quality</t>
+  </si>
+  <si>
+    <t>No breakfast, ok outdoor swimming pool, smelly room, noisy aircon, terrible noise isolation from other rooms and surroundings, ok kitchenette but noisy refrigerator. Stay somewhere else if you can.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r117772370-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117772370</t>
+  </si>
+  <si>
+    <t>09/06/2011</t>
+  </si>
+  <si>
+    <t>Basic, but I liked it.</t>
+  </si>
+  <si>
+    <t>After seeing some  reviews of other Candlewoods, I approached this visit with a little trepidation.  It wasn't helped by a colleague, who didn't like the area and insisted on calling it "CandleHood"
+Actually, I was pleasantly surprised. The receptionists were consistently cheerful and helpful, the room was scrupulously clean, the bathroom had loads of towels, the bed was comfortable, there was no shortage of hot water, and everything worked.  The kitchenette was actually very well provided (and the fridge was enormous!) and the "Pantry" was well-stocked with essentials, and never ran out of anything.
+To be fair, the amenities were basic rather than luxurious: the aircon worked well (essential in the heat of a Houston summer) but was a bit noisy,  The shower was adequate rather than gushing, the internet (free!) was occasionally a bit flaky (probably weight of traffic), and the room could have done with a bit more lighting.
+Location was fine.  There was more than enough parking front and back of the building, there were dozens of places to eat within easy walking distance (though the locals never walk anywhere!), and the area was clean, well looked-after, and felt perfectly safe.
+Once I'd got the hang of the place, I quite liked it.  It's quite nice not to have to dress for breakfast, but just to grab something out of the fridge.  Three-times daily maid service is nice (as the posh hotels do) but it's even nicer...After seeing some  reviews of other Candlewoods, I approached this visit with a little trepidation.  It wasn't helped by a colleague, who didn't like the area and insisted on calling it "CandleHood"Actually, I was pleasantly surprised. The receptionists were consistently cheerful and helpful, the room was scrupulously clean, the bathroom had loads of towels, the bed was comfortable, there was no shortage of hot water, and everything worked.  The kitchenette was actually very well provided (and the fridge was enormous!) and the "Pantry" was well-stocked with essentials, and never ran out of anything.To be fair, the amenities were basic rather than luxurious: the aircon worked well (essential in the heat of a Houston summer) but was a bit noisy,  The shower was adequate rather than gushing, the internet (free!) was occasionally a bit flaky (probably weight of traffic), and the room could have done with a bit more lighting.Location was fine.  There was more than enough parking front and back of the building, there were dozens of places to eat within easy walking distance (though the locals never walk anywhere!), and the area was clean, well looked-after, and felt perfectly safe.Once I'd got the hang of the place, I quite liked it.  It's quite nice not to have to dress for breakfast, but just to grab something out of the fridge.  Three-times daily maid service is nice (as the posh hotels do) but it's even nicer to have a space that feels like it's your own when you have to spend a few weeks there.I liked it. I'd stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>After seeing some  reviews of other Candlewoods, I approached this visit with a little trepidation.  It wasn't helped by a colleague, who didn't like the area and insisted on calling it "CandleHood"
+Actually, I was pleasantly surprised. The receptionists were consistently cheerful and helpful, the room was scrupulously clean, the bathroom had loads of towels, the bed was comfortable, there was no shortage of hot water, and everything worked.  The kitchenette was actually very well provided (and the fridge was enormous!) and the "Pantry" was well-stocked with essentials, and never ran out of anything.
+To be fair, the amenities were basic rather than luxurious: the aircon worked well (essential in the heat of a Houston summer) but was a bit noisy,  The shower was adequate rather than gushing, the internet (free!) was occasionally a bit flaky (probably weight of traffic), and the room could have done with a bit more lighting.
+Location was fine.  There was more than enough parking front and back of the building, there were dozens of places to eat within easy walking distance (though the locals never walk anywhere!), and the area was clean, well looked-after, and felt perfectly safe.
+Once I'd got the hang of the place, I quite liked it.  It's quite nice not to have to dress for breakfast, but just to grab something out of the fridge.  Three-times daily maid service is nice (as the posh hotels do) but it's even nicer...After seeing some  reviews of other Candlewoods, I approached this visit with a little trepidation.  It wasn't helped by a colleague, who didn't like the area and insisted on calling it "CandleHood"Actually, I was pleasantly surprised. The receptionists were consistently cheerful and helpful, the room was scrupulously clean, the bathroom had loads of towels, the bed was comfortable, there was no shortage of hot water, and everything worked.  The kitchenette was actually very well provided (and the fridge was enormous!) and the "Pantry" was well-stocked with essentials, and never ran out of anything.To be fair, the amenities were basic rather than luxurious: the aircon worked well (essential in the heat of a Houston summer) but was a bit noisy,  The shower was adequate rather than gushing, the internet (free!) was occasionally a bit flaky (probably weight of traffic), and the room could have done with a bit more lighting.Location was fine.  There was more than enough parking front and back of the building, there were dozens of places to eat within easy walking distance (though the locals never walk anywhere!), and the area was clean, well looked-after, and felt perfectly safe.Once I'd got the hang of the place, I quite liked it.  It's quite nice not to have to dress for breakfast, but just to grab something out of the fridge.  Three-times daily maid service is nice (as the posh hotels do) but it's even nicer to have a space that feels like it's your own when you have to spend a few weeks there.I liked it. I'd stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r80990710-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>80990710</t>
+  </si>
+  <si>
+    <t>09/25/2010</t>
+  </si>
+  <si>
+    <t>Customer Service was key!</t>
+  </si>
+  <si>
+    <t>The Candlewood was your standard Candlewood venue but what made this property standout was the staff. Nothing was to difficult and they were always available to help. In addition, Gary seemed to be resident at all hours and ever so happy. Many more expensive hotel in Houston could learn from Gary. He is why people return to a hotel.I had an issue with the A/C and Walken came to the rescue. As it was Sunday he called the maintenance personnel and resolved the problem by follwing instruction from them on the phone. When is the last time the front desk that??Both these gentlemen exhibit superlative service and mad this stay memorable.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>The Candlewood was your standard Candlewood venue but what made this property standout was the staff. Nothing was to difficult and they were always available to help. In addition, Gary seemed to be resident at all hours and ever so happy. Many more expensive hotel in Houston could learn from Gary. He is why people return to a hotel.I had an issue with the A/C and Walken came to the rescue. As it was Sunday he called the maintenance personnel and resolved the problem by follwing instruction from them on the phone. When is the last time the front desk that??Both these gentlemen exhibit superlative service and mad this stay memorable.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1006,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1038,1269 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>131</v>
+      </c>
+      <c r="X11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" t="s">
+        <v>140</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>141</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>150</v>
+      </c>
+      <c r="X13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>158</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>171</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" t="s">
+        <v>176</v>
+      </c>
+      <c r="L17" t="s">
+        <v>177</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>178</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>184</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" t="s">
+        <v>190</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>191</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_76.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_76.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,69 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r592292365-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1138042</t>
+  </si>
+  <si>
+    <t>592292365</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>Amazing Hotel!</t>
+  </si>
+  <si>
+    <t>This is the best Hotel I have ever stayed! The staff is great, friendly and helpful. From the  front desk team Josh was pretty helpful at the moment of check in, he explained me everything I needed to know about housekeeping, and the amenities the hotel offers, Claudia was so kind when I checked out, she helped me with a future reservation. Housekeepers did great job! My room was neat and clean, the kitchen had everything I needed to make my meals. My husband and I just have to say Thank you for making us feel like Home!</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r504134690-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504134690</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>great place for me</t>
+  </si>
+  <si>
+    <t>perfect location for me... i work one block down the street.Nice rooms... clean.... nice layout.  like the full kitchen with full size fridge.  the gym has nice equipment..... I PARTICULARLY LIKE THIS LOCATION BECUASE I HAVE NEVER HAD MY TRUCK BROKE IN TO!  I CAN NOT SAY THAT ABOUT OTHER LOCATIONS IN HOUSTON.  but most importantly NICE FRIENDLY STAFF.... always accomadting!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Jimmi L, Front Office Manager at Candlewood Suites Westchase-Westheimer, responded to this reviewResponded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2017</t>
+  </si>
+  <si>
+    <t>perfect location for me... i work one block down the street.Nice rooms... clean.... nice layout.  like the full kitchen with full size fridge.  the gym has nice equipment..... I PARTICULARLY LIKE THIS LOCATION BECUASE I HAVE NEVER HAD MY TRUCK BROKE IN TO!  I CAN NOT SAY THAT ABOUT OTHER LOCATIONS IN HOUSTON.  but most importantly NICE FRIENDLY STAFF.... always accomadting!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r503584646-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>1138042</t>
-  </si>
-  <si>
     <t>503584646</t>
   </si>
   <si>
@@ -177,15 +228,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Jimmi L, Front Office Manager at Candlewood Suites Westchase-Westheimer, responded to this reviewResponded July 24, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 24, 2017</t>
-  </si>
-  <si>
     <t>We found the room a little dirty and found a bug in the restroom.  We could hear the people next door, which tells me they could hear us too.  Not a romantic setting under these circumstances.  Will try another location next visit as this chain is usually very good.More</t>
   </si>
   <si>
@@ -246,6 +288,57 @@
     <t>This place is always updated, clean and at a fair price. My sole complaint is that they change wifi passwords at midnight on Thursdays and if you check in on a Thursday they will not or maybe cannot give you the Friday password. On my last stay I needed to use  the laptop at three am and called the front desk who gave me a password that did not work. When I called him back he said to use the old one which did.Who knows!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r443829719-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>443829719</t>
+  </si>
+  <si>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>2 month stay</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 months and the staff was absolutely wonderful, very accommodating, and the rooms are extremely nice. When I'm in the area this is the only place I will stay...wonderful experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Jimmi L, Front Office Manager at Candlewood Suites Westchase-Westheimer, responded to this reviewResponded December 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 months and the staff was absolutely wonderful, very accommodating, and the rooms are extremely nice. When I'm in the area this is the only place I will stay...wonderful experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r432351366-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>432351366</t>
+  </si>
+  <si>
+    <t>10/28/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Clean rooms, convenient location, friendly staff.  Stay there often on business.  Not to mention the free food and drink happy hour every Wednesday evening.  I would highly suggest this hotel to anyone looking for a great value stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jimmi L, Front Office Manager at Candlewood Suites Westchase-Westheimer, responded to this reviewResponded December 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2016</t>
+  </si>
+  <si>
+    <t>Clean rooms, convenient location, friendly staff.  Stay there often on business.  Not to mention the free food and drink happy hour every Wednesday evening.  I would highly suggest this hotel to anyone looking for a great value stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r431219548-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -261,16 +354,7 @@
     <t>It was a comfy and welcoming suite. Visited there with 2 kids and everything was great. The night staff, Maaz, was very nice to help me finding grocery stores near the hotel. Affordable and good hotel. Will stay again.MoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Jimmi L, Front Office Manager at Candlewood Suites Westchase-Westheimer, responded to this reviewResponded December 1, 2016</t>
-  </si>
-  <si>
-    <t>Responded December 1, 2016</t>
   </si>
   <si>
     <t>It was a comfy and welcoming suite. Visited there with 2 kids and everything was great. The night staff, Maaz, was very nice to help me finding grocery stores near the hotel. Affordable and good hotel. Will stay again.More</t>
@@ -333,6 +417,48 @@
     <t>I stayed at this hotel for business.  I selected it for the features, like a stove, microwave, dishwasher and refrigerator.  When I checked in, my room had several small problems.  1. Bulletin fell off the wall, 2. Phone would not dial, and 3. The clock radio was not working properly.  I complained to the hotel staff and they kindly switched me to a new room.  My second room, had less problems, but still needed a little maintenance, for example the faucets would not produce hot water easily.   I later discovered the following general problems, not all dryers were not working, and the whirlpool temperature was luke warm, at best.  On a positive note, the exercise room was useful and modern.  There was a dinner on Wednesday evening for the guests-a nice extra.   This hotel was clean, safe and offers a more than most chains, yet, it needs some maintenance.  If the management can fix these small problems, then I would rate this hotel as a 5 out of 5.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r382528489-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>382528489</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Pleasure</t>
+  </si>
+  <si>
+    <t>This place was a great home away from home and pet friendly! Cleanliness and the friendly Front Desk staff was the best you could ask for.  I was very pleased with my room as it had a kitchenette and I slept very comfortably.  On Wednesday they have a social for the guest where they cater in food and drinks to show guest appreciation. Also, the hotel is located in a good centralized area in Houston, lots of restaurants and shopping close by.  I will definitely return to this location. Keep up the good work!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Jimmi L, Front Office Manager at Candlewood Suites Westchase-Westheimer, responded to this reviewResponded November 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2016</t>
+  </si>
+  <si>
+    <t>This place was a great home away from home and pet friendly! Cleanliness and the friendly Front Desk staff was the best you could ask for.  I was very pleased with my room as it had a kitchenette and I slept very comfortably.  On Wednesday they have a social for the guest where they cater in food and drinks to show guest appreciation. Also, the hotel is located in a good centralized area in Houston, lots of restaurants and shopping close by.  I will definitely return to this location. Keep up the good work!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r381140823-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381140823</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t>Great hotel for extended stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have stayed at the candlewood suites and it was great the staff is friendly,rooms are clean,they have a pool wich was important after a long day at work nice kitchen, spaceous room, price is worth every penny </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r379358906-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -397,6 +523,45 @@
   </si>
   <si>
     <t>The hotel is old school rooms with big old fridges and air conditioners, very noisy with either running which in Houston is likely most of the year.Room also "smelt funny" which might have been just my room but hard to tell.Wireless/Internet speeds where pretty good I didn't have any problems used for my work or play.There is very little in the local walking distance if you don't have a vehicle, they have a candlewood parlour which is mostly stocked with things although the freezer was broken while I was there.Staff pretty friendly but don't appear to know anything about the local area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r315236653-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>315236653</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>Good Location with well worth the money</t>
+  </si>
+  <si>
+    <t>We have been staying in this Hotel for many times. This Hotel is improving as the years go by. PROS:The staffs are friendlier. Plenty of parking spaceLocation is great. Since this is Westheimer, all restaurants and malls are close by.Rooms are decently sized and cleanMicrowave, cooking range, Iron box/board and Fridges are providedThey have a small commissary which sells all day to day essentials. This is a great serviceThere is a small gymThere are two sets of Laundry Machines and two sets of dryers. Both are available for freeCONSThere is no room service or break fast availableHouse keeping frequency need to be increased. They call "light" cleaning which means not intensive cleaning. This is not acceptableMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>We have been staying in this Hotel for many times. This Hotel is improving as the years go by. PROS:The staffs are friendlier. Plenty of parking spaceLocation is great. Since this is Westheimer, all restaurants and malls are close by.Rooms are decently sized and cleanMicrowave, cooking range, Iron box/board and Fridges are providedThey have a small commissary which sells all day to day essentials. This is a great serviceThere is a small gymThere are two sets of Laundry Machines and two sets of dryers. Both are available for freeCONSThere is no room service or break fast availableHouse keeping frequency need to be increased. They call "light" cleaning which means not intensive cleaning. This is not acceptableMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r250706743-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250706743</t>
+  </si>
+  <si>
+    <t>01/23/2015</t>
+  </si>
+  <si>
+    <t>One of the best hotels in Houston</t>
+  </si>
+  <si>
+    <t>The hotel is located in a quiet and safe area but close to the freeways, markets, restaurants. Customer service was very friendly and helpful but the procedure of check-in was slow. The room has a small kitchen with dishes, cups, bowls, and utensils. The bathroom is clean and roomy. The hotel offers free Wi-fi. The bed is very comfortable. I love the room design.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r217804904-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
@@ -485,6 +650,42 @@
 Si I showed up at the hotel after flying 4 hours from Portland, OR, tired and axious to get a quick bite to eat and get to bed.  When I checked in, in a somewhat slighyl seedy area of Westheimer that made me nervous to set foot outside of the hotel and walk over to the local gas station to get some snacks and things, I was assigned a room on the ground floor.  This did not make me happy, but i thought, "Oh Well".  I walked to the room and found it was a handicapped room.  I returned to the front desk and asked for...I booked this hotel due to its name ("Candlewood Suites" are a good brand generally, for what I am looking for in a hotel), its location closes to where my meetings were the next day, and the price (moderate, not super cheap nor super expensive).  The hotel itseslf is not too bad, although there are definitely things that need to be done to the physical condition.  My reason for the low rating is for the paper-thin walls and the management's failure to honor any request that I made, even though I am one of their elite stayers.  I psecifically requested a high floor, no handicapped room, quiet side of the building.  I realize that these are only requests, but if they cannot be fulfilled, I would rather know that at the time of booking.  Si I showed up at the hotel after flying 4 hours from Portland, OR, tired and axious to get a quick bite to eat and get to bed.  When I checked in, in a somewhat slighyl seedy area of Westheimer that made me nervous to set foot outside of the hotel and walk over to the local gas station to get some snacks and things, I was assigned a room on the ground floor.  This did not make me happy, but i thought, "Oh Well".  I walked to the room and found it was a handicapped room.  I returned to the front desk and asked for another room.  I was informed that they had been totally booked for more than a week, and that this is all that they had.  I almost checked out, but it was late, and I really needed to sleep.  I mentioned how unhappy I was.  No apologies were offered.   Since I booked this room directly, over the phone, within this "week during which everything was sold out", I am surprised that they did not mention to me that my requests had very little chance of being fulfilled.  I fault them for this, not the fact that there were no rooms matching my request available.  I went in to the room.  The work area was very small, barely large enough to put down my laptop and my notebook, glasses, pen and cell phone.  It was hard even top just check my email, let alone prepare the PowerPoints that I needed for the next day.  The handicapped bathroom was not good - and I wonder just how wheelchair- bound guests actually manage to take abath or shower.  Instead of a roll-in shower, they had a bath tub with a lot of rails, and a shower cord with nothing to attach it to.  Most of these hand-shower hook-ups have a peg or seomthing that the shower head can be attached to, and the level of the shower lowered or raised.  There was a bar ostenibly for that prupose, but the slide part was entirely missing, and so one had to actually hold the shower head with one hand in order to takle a shower.  As I am able-bodied, I could get in and out of the tub, but I don't see how a handicapped person would manage this without a lot of unpleasantness.  Also, the hot water was at best lukewarm, and the shower fitting that is used to adjust the temperature was strange - if you turned it halway, it was at its hottest.  you could turn it either way completely 360 degrees, and other than the pinnacle position, it would always get colder either way you turned it!  The walls in my room were paper-thin.  I could hear the mildest cough or TV sound.  I was fortunate that the person above me and the people next to me wewnt to bed at approximately the same time that I did, or I would have had no sleep whatsoever.  I appreciate their consideration.  Being on the parking lot on the ground level was also very noisy.  I had not planned to have the air conditioner running all night, but the car noise required me to try to drown it out.On the plus side, the bed iws very comfortable, including the very nice pillows.  The folks running the front desk are pleasant, if highly ineffectual and clueless.  The internet is so overburdened that I ended up tethering my cell phone in order to do email and send a few files back and forth.I will not stay here again willingly.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r145194779-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145194779</t>
+  </si>
+  <si>
+    <t>11/11/2012</t>
+  </si>
+  <si>
+    <t>Candlewood Suites nice</t>
+  </si>
+  <si>
+    <t>Candlewood Suites nice!  Weekend visit in Houston for no particular reason.  Booked Priority Club Point Break booking and received a nice two bed room with a view of Westheimer Road.  Late arrival and the staff greeted me by name after confirming an existing reservation.  Acknowledged Priority Club status with bottled water and a bag of cookies and a thank you.  The hotel and the hotel room were both quite clean and well organized.  Candlewood Suites are extended stay facilities so do expect the on site "store" and laundry and exercise room; but do not expect daily room service, breakfast, or a roof top bar...  The area is typical Houston with endless restaurants and shopping and businesses.  The refrigerator and microwave and the assorted pots and pans and plate and forks and spoons are all welcome additions for a stay of one day or one month.  Nice enough weather so turned the a/c off for the stay as the fan is a bit loud on the in room units.  Entertainment via cable and Internet as expected but no BBC to be found and Internet a bit slow.  Quite friendly desk staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Candlewood Suites nice!  Weekend visit in Houston for no particular reason.  Booked Priority Club Point Break booking and received a nice two bed room with a view of Westheimer Road.  Late arrival and the staff greeted me by name after confirming an existing reservation.  Acknowledged Priority Club status with bottled water and a bag of cookies and a thank you.  The hotel and the hotel room were both quite clean and well organized.  Candlewood Suites are extended stay facilities so do expect the on site "store" and laundry and exercise room; but do not expect daily room service, breakfast, or a roof top bar...  The area is typical Houston with endless restaurants and shopping and businesses.  The refrigerator and microwave and the assorted pots and pans and plate and forks and spoons are all welcome additions for a stay of one day or one month.  Nice enough weather so turned the a/c off for the stay as the fan is a bit loud on the in room units.  Entertainment via cable and Internet as expected but no BBC to be found and Internet a bit slow.  Quite friendly desk staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r144966455-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144966455</t>
+  </si>
+  <si>
+    <t>11/08/2012</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>THis was located close to freeeways and good eating places. I didnt have any problems other than when we turned the heater on it smelled like it was burning and set off the smoke detector. I assume it hadnt been turned on in a while. CHeck in was easy and staff we encountered was nice and polite. NO other issues</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r142695094-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -545,6 +746,69 @@
   <si>
     <t>Upon arriving at hotel for hubby's business trip (my 1 yr.old and i came along), we were greeted by friendly front desk personnel by the name of Wen. Were shocked to see how small the efficiency room was that the hubby's company reserved for us. Talked to Wen (and remind you, it was a Sunday) and he contacted the hotel's sales manager and she contacted my hubby's company and we got upgraded to a one bedroom on the company's dime. They both went out of their way to accommodate us! The one bedroom is much more suitable for a family.
 Room is spacious and the bedroom is seperate from the living room/kitchen/bathroom. Only complaints i have is that the entire second and third floor smell like curry powder. BLAH. The third floor and our room reek of it. The property has a nice pool that is upkept well and a nice grilling gazebo area with two newer grills and tables and chairs. Hotel is right off of Westheimer Road, which is a main road in Houston with tons of restaurants and shops. Weekly, the hotel puts on a meet and greet every Wednesday and provides free food and beer/soft drinks. Nice way to meet people. As far as feeling safe here, there are shady apartments behind the hotel (seperated by a tall fence) and we did not feel threatened during the day or night outside because the hotel has security...Upon arriving at hotel for hubby's business trip (my 1 yr.old and i came along), we were greeted by friendly front desk personnel by the name of Wen. Were shocked to see how small the efficiency room was that the hubby's company reserved for us. Talked to Wen (and remind you, it was a Sunday) and he contacted the hotel's sales manager and she contacted my hubby's company and we got upgraded to a one bedroom on the company's dime. They both went out of their way to accommodate us! The one bedroom is much more suitable for a family.Room is spacious and the bedroom is seperate from the living room/kitchen/bathroom. Only complaints i have is that the entire second and third floor smell like curry powder. BLAH. The third floor and our room reek of it. The property has a nice pool that is upkept well and a nice grilling gazebo area with two newer grills and tables and chairs. Hotel is right off of Westheimer Road, which is a main road in Houston with tons of restaurants and shops. Weekly, the hotel puts on a meet and greet every Wednesday and provides free food and beer/soft drinks. Nice way to meet people. As far as feeling safe here, there are shady apartments behind the hotel (seperated by a tall fence) and we did not feel threatened during the day or night outside because the hotel has security at night time. It isn't an area that you can walk to things though. Westheimer is a four lane highway and the area has some shady characters walking around. There is a sonic right in front of hotel for last minute food. The staff were absolutely wonderful and accommodating and became like our family while we were here! Would reccommed this hotel to out of towners and business people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r125456877-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125456877</t>
+  </si>
+  <si>
+    <t>03/01/2012</t>
+  </si>
+  <si>
+    <t>Weekly Housekeeping?</t>
+  </si>
+  <si>
+    <t>The title really says it all.  It's more of an extended stay kind of place in a slighty dodgy neighborhood.  If you want a place with a full sized fridge -- then here you go.My other choices were sold out -- next time I won't stay here.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r122757765-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>122757765</t>
+  </si>
+  <si>
+    <t>01/08/2012</t>
+  </si>
+  <si>
+    <t>Pleasant place to stay with hospitable staff</t>
+  </si>
+  <si>
+    <t>I was stayed here (Studio suite, ground floor, just behind the pool gazebo) 2 weeks for business purpose and I loved it. Despite that they don't clean the room everyday (every 2-3 days or so as I remember), the place is actually quite enjoyable.
+Things you need to know;
+- No breakfast served. But Waffle House &amp; Sonic are just a stone's throw away. There's also a small mini-market called "cupboard" near the receptionist with variety of foods and drinks to choose from. If you want halal food, there's an Iranian run restaurant called "Hafez", just across the hotels on your right.
+- They clean the room every 2-3 days or so. Couldn't remembered exactly, but for sure not everyday. This be the main cons. Not sure if this is part of corporate deal, but other reviews stated daily cleaning. Better check your deal first.
+- Gym was more than OK.
+- Laundromat is free!
+- Kitchenette inside the room is quite small but beyond my expectations. Fridge is big, everything working fine.
+- Free internet/Wifi !! :)
+- Free local calls
+- Pool was OK, there's a fire up grill and gazebo to hanging around.
+- I love the bed and pillows so much.
+- The receptionist (forgot the name, 3 of them I think) were all very hospitable and very friendly. They took care everything we need and provide reliable information for places around the hotel.
+- Complete...I was stayed here (Studio suite, ground floor, just behind the pool gazebo) 2 weeks for business purpose and I loved it. Despite that they don't clean the room everyday (every 2-3 days or so as I remember), the place is actually quite enjoyable.Things you need to know;- No breakfast served. But Waffle House &amp; Sonic are just a stone's throw away. There's also a small mini-market called "cupboard" near the receptionist with variety of foods and drinks to choose from. If you want halal food, there's an Iranian run restaurant called "Hafez", just across the hotels on your right.- They clean the room every 2-3 days or so. Couldn't remembered exactly, but for sure not everyday. This be the main cons. Not sure if this is part of corporate deal, but other reviews stated daily cleaning. Better check your deal first.- Gym was more than OK.- Laundromat is free!- Kitchenette inside the room is quite small but beyond my expectations. Fridge is big, everything working fine.- Free internet/Wifi !! :)- Free local calls- Pool was OK, there's a fire up grill and gazebo to hanging around.- I love the bed and pillows so much.- The receptionist (forgot the name, 3 of them I think) were all very hospitable and very friendly. They took care everything we need and provide reliable information for places around the hotel.- Complete amenities; Irons, hairdryer, etc- Flat screen and DVD in the room! :D.. love it! Aside from hundreds of good (HD) movie channel, you can borrow a collection of DVD titles available at receptionist for free!- Parking slot is ample and we felt security is OK.- There's a small but reliable business corner with online desktop PC and a printer.- Location is in Westheimer Rd where you could go to a lot of places to eat.Overall I would recommend this place to anyone and definitely will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>I was stayed here (Studio suite, ground floor, just behind the pool gazebo) 2 weeks for business purpose and I loved it. Despite that they don't clean the room everyday (every 2-3 days or so as I remember), the place is actually quite enjoyable.
+Things you need to know;
+- No breakfast served. But Waffle House &amp; Sonic are just a stone's throw away. There's also a small mini-market called "cupboard" near the receptionist with variety of foods and drinks to choose from. If you want halal food, there's an Iranian run restaurant called "Hafez", just across the hotels on your right.
+- They clean the room every 2-3 days or so. Couldn't remembered exactly, but for sure not everyday. This be the main cons. Not sure if this is part of corporate deal, but other reviews stated daily cleaning. Better check your deal first.
+- Gym was more than OK.
+- Laundromat is free!
+- Kitchenette inside the room is quite small but beyond my expectations. Fridge is big, everything working fine.
+- Free internet/Wifi !! :)
+- Free local calls
+- Pool was OK, there's a fire up grill and gazebo to hanging around.
+- I love the bed and pillows so much.
+- The receptionist (forgot the name, 3 of them I think) were all very hospitable and very friendly. They took care everything we need and provide reliable information for places around the hotel.
+- Complete...I was stayed here (Studio suite, ground floor, just behind the pool gazebo) 2 weeks for business purpose and I loved it. Despite that they don't clean the room everyday (every 2-3 days or so as I remember), the place is actually quite enjoyable.Things you need to know;- No breakfast served. But Waffle House &amp; Sonic are just a stone's throw away. There's also a small mini-market called "cupboard" near the receptionist with variety of foods and drinks to choose from. If you want halal food, there's an Iranian run restaurant called "Hafez", just across the hotels on your right.- They clean the room every 2-3 days or so. Couldn't remembered exactly, but for sure not everyday. This be the main cons. Not sure if this is part of corporate deal, but other reviews stated daily cleaning. Better check your deal first.- Gym was more than OK.- Laundromat is free!- Kitchenette inside the room is quite small but beyond my expectations. Fridge is big, everything working fine.- Free internet/Wifi !! :)- Free local calls- Pool was OK, there's a fire up grill and gazebo to hanging around.- I love the bed and pillows so much.- The receptionist (forgot the name, 3 of them I think) were all very hospitable and very friendly. They took care everything we need and provide reliable information for places around the hotel.- Complete amenities; Irons, hairdryer, etc- Flat screen and DVD in the room! :D.. love it! Aside from hundreds of good (HD) movie channel, you can borrow a collection of DVD titles available at receptionist for free!- Parking slot is ample and we felt security is OK.- There's a small but reliable business corner with online desktop PC and a printer.- Location is in Westheimer Rd where you could go to a lot of places to eat.Overall I would recommend this place to anyone and definitely will stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1138042-r120092452-Candlewood_Suites_Westchase_Westheimer-Houston_Texas.html</t>
@@ -1147,7 +1411,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1158,7 +1422,7 @@
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
@@ -1168,14 +1432,10 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1191,7 +1451,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1200,47 +1460,49 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" t="s"/>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -1256,7 +1518,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1265,49 +1527,47 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>72</v>
-      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -1323,7 +1583,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1332,49 +1592,47 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
         <v>77</v>
       </c>
-      <c r="J5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5" t="s">
-        <v>82</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -1390,7 +1648,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1399,49 +1657,49 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -1457,7 +1715,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1466,47 +1724,43 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
@@ -1522,7 +1776,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1531,34 +1785,32 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>5</v>
@@ -1566,10 +1818,14 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
+        <v>105</v>
+      </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
@@ -1585,7 +1841,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1594,39 +1850,49 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
         <v>110</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>111</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
         <v>112</v>
       </c>
-      <c r="L9" t="s">
-        <v>113</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>114</v>
-      </c>
-      <c r="O9" t="s">
-        <v>82</v>
-      </c>
-      <c r="P9" t="s"/>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>104</v>
+      </c>
+      <c r="X9" t="s">
+        <v>105</v>
+      </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -1642,7 +1908,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1651,49 +1917,49 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
         <v>117</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>118</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>119</v>
       </c>
-      <c r="L10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" t="s">
-        <v>121</v>
-      </c>
       <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
       <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>120</v>
+      </c>
+      <c r="X10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y10" t="s">
         <v>122</v>
-      </c>
-      <c r="X10" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="11">
@@ -1709,7 +1975,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1718,49 +1984,47 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
         <v>126</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>127</v>
-      </c>
-      <c r="K11" t="s">
-        <v>128</v>
-      </c>
-      <c r="L11" t="s">
-        <v>129</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="X11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Y11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -1776,7 +2040,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1785,53 +2049,47 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
         <v>135</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>136</v>
       </c>
-      <c r="K12" t="s">
-        <v>137</v>
-      </c>
-      <c r="L12" t="s">
-        <v>138</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>139</v>
-      </c>
       <c r="O12" t="s">
-        <v>140</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
       <c r="R12" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
@@ -1847,7 +2105,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1856,53 +2114,39 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>3</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>150</v>
-      </c>
-      <c r="X13" t="s">
-        <v>151</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
@@ -1918,7 +2162,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1927,41 +2171,37 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1969,7 +2209,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
@@ -1985,7 +2225,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1994,49 +2234,39 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="J15" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="K15" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>3</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
@@ -2052,7 +2282,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2061,49 +2291,49 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="J16" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="K16" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>163</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
         <v>3</v>
       </c>
-      <c r="N16" t="s">
-        <v>171</v>
-      </c>
-      <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>164</v>
+      </c>
+      <c r="X16" t="s">
+        <v>165</v>
+      </c>
       <c r="Y16" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17">
@@ -2119,7 +2349,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2128,41 +2358,35 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J17" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
       <c r="R17" t="n">
-        <v>3</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2170,7 +2394,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
@@ -2186,7 +2410,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2195,37 +2419,37 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
       <c r="S18" t="n">
         <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2233,7 +2457,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
@@ -2249,7 +2473,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2258,49 +2482,857 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="J19" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
       <c r="R19" t="n">
         <v>4</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>186</v>
+      </c>
+      <c r="X19" t="s">
+        <v>187</v>
+      </c>
       <c r="Y19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" t="s">
         <v>192</v>
+      </c>
+      <c r="L20" t="s">
+        <v>193</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>194</v>
+      </c>
+      <c r="O20" t="s">
+        <v>195</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>196</v>
+      </c>
+      <c r="X20" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" t="s">
+        <v>203</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>204</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>205</v>
+      </c>
+      <c r="X21" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" t="s">
+        <v>211</v>
+      </c>
+      <c r="L22" t="s">
+        <v>212</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>213</v>
+      </c>
+      <c r="O22" t="s">
+        <v>77</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23" t="s">
+        <v>217</v>
+      </c>
+      <c r="K23" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23" t="s">
+        <v>219</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>213</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" t="s">
+        <v>223</v>
+      </c>
+      <c r="L24" t="s">
+        <v>224</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>225</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>227</v>
+      </c>
+      <c r="J25" t="s">
+        <v>228</v>
+      </c>
+      <c r="K25" t="s">
+        <v>229</v>
+      </c>
+      <c r="L25" t="s">
+        <v>230</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>231</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>233</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>234</v>
+      </c>
+      <c r="J26" t="s">
+        <v>235</v>
+      </c>
+      <c r="K26" t="s">
+        <v>236</v>
+      </c>
+      <c r="L26" t="s">
+        <v>237</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>238</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>240</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>241</v>
+      </c>
+      <c r="J27" t="s">
+        <v>242</v>
+      </c>
+      <c r="K27" t="s">
+        <v>243</v>
+      </c>
+      <c r="L27" t="s">
+        <v>244</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>245</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>247</v>
+      </c>
+      <c r="J28" t="s">
+        <v>248</v>
+      </c>
+      <c r="K28" t="s">
+        <v>249</v>
+      </c>
+      <c r="L28" t="s">
+        <v>250</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>251</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>253</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>254</v>
+      </c>
+      <c r="J29" t="s">
+        <v>255</v>
+      </c>
+      <c r="K29" t="s">
+        <v>256</v>
+      </c>
+      <c r="L29" t="s">
+        <v>257</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>258</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>260</v>
+      </c>
+      <c r="J30" t="s">
+        <v>261</v>
+      </c>
+      <c r="K30" t="s">
+        <v>262</v>
+      </c>
+      <c r="L30" t="s">
+        <v>263</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>264</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>58067</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>267</v>
+      </c>
+      <c r="J31" t="s">
+        <v>268</v>
+      </c>
+      <c r="K31" t="s">
+        <v>269</v>
+      </c>
+      <c r="L31" t="s">
+        <v>270</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>271</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
